--- a/transacoes_sap.xlsx
+++ b/transacoes_sap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U623373\Desktop\dic_sap\github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U623373\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB8C049-B47B-4F60-94B5-A19176A25302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD8F066-6ABD-4B3A-901F-4FB36396D8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{77C9B20D-37FF-4BED-A8BD-96C6BDDAFD3A}"/>
   </bookViews>
@@ -206,174 +206,6 @@
     <t xml:space="preserve">FMEM </t>
   </si>
   <si>
-    <t xml:space="preserve">Emissão do programa de ODS (COELODS) / Programa de Investimento (COELBA) </t>
-  </si>
-  <si>
-    <t>Custo real de projeto</t>
-  </si>
-  <si>
-    <t>Custo compromissado do projeto</t>
-  </si>
-  <si>
-    <t>Estrutura do Projeto</t>
-  </si>
-  <si>
-    <t>Criar nova requisição.</t>
-  </si>
-  <si>
-    <t>Modificar requisição existente.</t>
-  </si>
-  <si>
-    <t>Exibir requisição existente.</t>
-  </si>
-  <si>
-    <t>Relatório geral sobre requisições de compras.</t>
-  </si>
-  <si>
-    <t>Relatório geral por classificação contábil sobre requisição de compras.</t>
-  </si>
-  <si>
-    <t>Relatório por projeto sobre requisição de compras.</t>
-  </si>
-  <si>
-    <t>Criar nova cotação.</t>
-  </si>
-  <si>
-    <t>Modificar cotação existente.</t>
-  </si>
-  <si>
-    <t>Exibir cotação existente.</t>
-  </si>
-  <si>
-    <t>Modificar anexo em cotação existente.</t>
-  </si>
-  <si>
-    <t>Relatorio de cotação por numero de material.</t>
-  </si>
-  <si>
-    <t>Relatorio de cotação por numero de cotação.</t>
-  </si>
-  <si>
-    <t>Relatorio de cotação por numero de fornecedor.</t>
-  </si>
-  <si>
-    <t>Realizar liberação de cotação.</t>
-  </si>
-  <si>
-    <t>Criar novo contrato.</t>
-  </si>
-  <si>
-    <t>Modificar contrato existente.</t>
-  </si>
-  <si>
-    <t>Exibir contrato existente.</t>
-  </si>
-  <si>
-    <t>Atualizar anexo de um contrato existente.</t>
-  </si>
-  <si>
-    <t>Liberar contrato.</t>
-  </si>
-  <si>
-    <t>Atualizar informações de diversos contratos em massa.</t>
-  </si>
-  <si>
-    <t>Relatório de contratos preferencialmente por numero material.</t>
-  </si>
-  <si>
-    <t>Relatório de contratos preferencialmente por numero de contrato.</t>
-  </si>
-  <si>
-    <t>Relatório de contratos preferencialmente por numero de fornecedor.</t>
-  </si>
-  <si>
-    <t>Criar novo pedido.</t>
-  </si>
-  <si>
-    <t>Modificar pedido existente.</t>
-  </si>
-  <si>
-    <t>Exibir pedido existente.</t>
-  </si>
-  <si>
-    <t>Atualizar anexo de um pedido existente.</t>
-  </si>
-  <si>
-    <t>Atualizar informações de diversos pedidos em massa.</t>
-  </si>
-  <si>
-    <t>Relatório de pedidos preferencialmente por material.</t>
-  </si>
-  <si>
-    <t>Relatório de pedidos preferencialmente por numero de pedido.</t>
-  </si>
-  <si>
-    <t>Relatório de pedidos preferencialmente por numero de fornecedor.</t>
-  </si>
-  <si>
-    <t>Liberar pedidos de forma coletiva.</t>
-  </si>
-  <si>
-    <t>Liberar pedidos individualmente.</t>
-  </si>
-  <si>
-    <t>Liberação coletiva de folhas de serviço.</t>
-  </si>
-  <si>
-    <t>Realizar entrada de mercadorias.</t>
-  </si>
-  <si>
-    <t>Realizar lançamento de serviços.</t>
-  </si>
-  <si>
-    <t>Realizar lançamento de nota fiscal.</t>
-  </si>
-  <si>
-    <t>Exibir lançamento de MIRO.</t>
-  </si>
-  <si>
-    <t>Exibir diversos lançamentos de MIRO.</t>
-  </si>
-  <si>
-    <t>Estornar MIRO.</t>
-  </si>
-  <si>
-    <t>Exibir documento contabil.</t>
-  </si>
-  <si>
-    <t>Criar novo fornecedor.</t>
-  </si>
-  <si>
-    <t>Modificar fornecedor existente.</t>
-  </si>
-  <si>
-    <t>Exibir fornecedor existente.</t>
-  </si>
-  <si>
-    <t>Bloquear fornecedor existente.</t>
-  </si>
-  <si>
-    <t>Marcar fornecedor existente para eliminação.</t>
-  </si>
-  <si>
-    <t>Atualizar informações de fornecedores em massa.</t>
-  </si>
-  <si>
-    <t>Criar novo inventario fisico.</t>
-  </si>
-  <si>
-    <t>Modificar inventario fisico existente.</t>
-  </si>
-  <si>
-    <t>Exibir inventario fisico existente.</t>
-  </si>
-  <si>
-    <t>Recontar inventario realizado.</t>
-  </si>
-  <si>
-    <t>Orçamento real.</t>
-  </si>
-  <si>
     <t>Descrição</t>
   </si>
   <si>
@@ -419,40 +251,208 @@
     <t>ZMM217</t>
   </si>
   <si>
-    <t>Cockpit com todas as transações relacionadas a auditoria.</t>
-  </si>
-  <si>
-    <t>Relatório sobre pagamentos realizados a fornecedores.</t>
-  </si>
-  <si>
-    <t>Relatório para retirar os aprovadores e seus dados de pedidos e contratos.</t>
-  </si>
-  <si>
-    <t>Relatório para retirar os aprovadores e seus dados de requisições de compra.</t>
-  </si>
-  <si>
-    <t>Cockpit com diversas transações relacionadas a projeto</t>
-  </si>
-  <si>
-    <t>Dados técnicos de projetos</t>
-  </si>
-  <si>
-    <t>Diversos dados sobre projetos</t>
-  </si>
-  <si>
-    <t>Movimentação de materiais/serviços por projeto.</t>
-  </si>
-  <si>
-    <t>Acompanhamento de todos os serviços realizados por projeto.</t>
-  </si>
-  <si>
-    <t>Lista de materiais/serviços por projeto.</t>
-  </si>
-  <si>
-    <t>Relatório com diversas informações sobre projetos enviadas a Aneel.</t>
-  </si>
-  <si>
-    <t>Relatório que gera diversas informações sobre contratos</t>
+    <t>Emissão do programa de ODS (COELODS) / Programa de Investimento (COELBA) ,x</t>
+  </si>
+  <si>
+    <t>Custo real de projeto,x</t>
+  </si>
+  <si>
+    <t>Custo compromissado do projeto,x</t>
+  </si>
+  <si>
+    <t>Estrutura do Projeto,x</t>
+  </si>
+  <si>
+    <t>Criar nova requisição.,x</t>
+  </si>
+  <si>
+    <t>Modificar requisição existente.,x</t>
+  </si>
+  <si>
+    <t>Exibir requisição existente.,x</t>
+  </si>
+  <si>
+    <t>Relatório geral sobre requisições de compras.,x</t>
+  </si>
+  <si>
+    <t>Relatório geral por classificação contábil sobre requisição de compras.,x</t>
+  </si>
+  <si>
+    <t>Relatório por projeto sobre requisição de compras.,x</t>
+  </si>
+  <si>
+    <t>Criar nova cotação.,x</t>
+  </si>
+  <si>
+    <t>Modificar cotação existente.,x</t>
+  </si>
+  <si>
+    <t>Exibir cotação existente.,x</t>
+  </si>
+  <si>
+    <t>Modificar anexo em cotação existente.,x</t>
+  </si>
+  <si>
+    <t>Relatorio de cotação por numero de material.,x</t>
+  </si>
+  <si>
+    <t>Relatorio de cotação por numero de cotação.,x</t>
+  </si>
+  <si>
+    <t>Relatorio de cotação por numero de fornecedor.,x</t>
+  </si>
+  <si>
+    <t>Realizar liberação de cotação.,x</t>
+  </si>
+  <si>
+    <t>Criar novo contrato.,x</t>
+  </si>
+  <si>
+    <t>Modificar contrato existente.,x</t>
+  </si>
+  <si>
+    <t>Exibir contrato existente.,x</t>
+  </si>
+  <si>
+    <t>Atualizar anexo de um contrato existente.,x</t>
+  </si>
+  <si>
+    <t>Liberar contrato.,x</t>
+  </si>
+  <si>
+    <t>Atualizar informações de diversos contratos em massa.,x</t>
+  </si>
+  <si>
+    <t>Relatório de contratos preferencialmente por numero material.,x</t>
+  </si>
+  <si>
+    <t>Relatório de contratos preferencialmente por numero de contrato.,x</t>
+  </si>
+  <si>
+    <t>Relatório de contratos preferencialmente por numero de fornecedor.,x</t>
+  </si>
+  <si>
+    <t>Criar novo pedido.,x</t>
+  </si>
+  <si>
+    <t>Modificar pedido existente.,x</t>
+  </si>
+  <si>
+    <t>Exibir pedido existente.,x</t>
+  </si>
+  <si>
+    <t>Atualizar anexo de um pedido existente.,x</t>
+  </si>
+  <si>
+    <t>Atualizar informações de diversos pedidos em massa.,x</t>
+  </si>
+  <si>
+    <t>Relatório de pedidos preferencialmente por material.,x</t>
+  </si>
+  <si>
+    <t>Relatório de pedidos preferencialmente por numero de pedido.,x</t>
+  </si>
+  <si>
+    <t>Relatório de pedidos preferencialmente por numero de fornecedor.,x</t>
+  </si>
+  <si>
+    <t>Liberar pedidos de forma coletiva.,x</t>
+  </si>
+  <si>
+    <t>Liberar pedidos individualmente.,x</t>
+  </si>
+  <si>
+    <t>Liberação coletiva de folhas de serviço.,x</t>
+  </si>
+  <si>
+    <t>Realizar entrada de mercadorias.,x</t>
+  </si>
+  <si>
+    <t>Realizar lançamento de serviços.,x</t>
+  </si>
+  <si>
+    <t>Realizar lançamento de nota fiscal.,x</t>
+  </si>
+  <si>
+    <t>Exibir lançamento de MIRO.,x</t>
+  </si>
+  <si>
+    <t>Exibir diversos lançamentos de MIRO.,x</t>
+  </si>
+  <si>
+    <t>Estornar MIRO.,x</t>
+  </si>
+  <si>
+    <t>Exibir documento contabil.,x</t>
+  </si>
+  <si>
+    <t>Criar novo fornecedor.,x</t>
+  </si>
+  <si>
+    <t>Modificar fornecedor existente.,x</t>
+  </si>
+  <si>
+    <t>Exibir fornecedor existente.,x</t>
+  </si>
+  <si>
+    <t>Bloquear fornecedor existente.,x</t>
+  </si>
+  <si>
+    <t>Marcar fornecedor existente para eliminação.,x</t>
+  </si>
+  <si>
+    <t>Atualizar informações de fornecedores em massa.,x</t>
+  </si>
+  <si>
+    <t>Criar novo inventario fisico.,x</t>
+  </si>
+  <si>
+    <t>Modificar inventario fisico existente.,x</t>
+  </si>
+  <si>
+    <t>Exibir inventario fisico existente.,x</t>
+  </si>
+  <si>
+    <t>Recontar inventario realizado.,x</t>
+  </si>
+  <si>
+    <t>Orçamento real.,x</t>
+  </si>
+  <si>
+    <t>Cockpit com todas as transações relacionadas a auditoria.,x</t>
+  </si>
+  <si>
+    <t>Relatório sobre pagamentos realizados a fornecedores.,x</t>
+  </si>
+  <si>
+    <t>Relatório para retirar os aprovadores e seus dados de pedidos e contratos.,x</t>
+  </si>
+  <si>
+    <t>Relatório para retirar os aprovadores e seus dados de requisições de compra.,x</t>
+  </si>
+  <si>
+    <t>Cockpit com diversas transações relacionadas a projeto,x</t>
+  </si>
+  <si>
+    <t>Dados técnicos de projetos,x</t>
+  </si>
+  <si>
+    <t>Diversos dados sobre projetos,x</t>
+  </si>
+  <si>
+    <t>Movimentação de materiais/serviços por projeto.,x</t>
+  </si>
+  <si>
+    <t>Acompanhamento de todos os serviços realizados por projeto.,x</t>
+  </si>
+  <si>
+    <t>Lista de materiais/serviços por projeto.,x</t>
+  </si>
+  <si>
+    <t>Relatório com diversas informações sobre projetos enviadas a Aneel.,x</t>
+  </si>
+  <si>
+    <t>Relatório que gera diversas informações sobre contratos,x</t>
   </si>
 </sst>
 </file>
@@ -826,26 +826,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2CB70D-AC85-45EC-AC43-CC4E571F42B6}">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="72.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -853,7 +854,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -861,7 +862,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -869,7 +870,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -877,7 +878,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -885,7 +886,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -893,7 +894,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -901,7 +902,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -909,7 +910,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -917,7 +918,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -925,7 +926,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -933,7 +934,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -941,7 +942,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -949,7 +950,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -957,7 +958,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -965,7 +966,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -973,7 +974,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -981,7 +982,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -989,7 +990,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -997,7 +998,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1005,7 +1006,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1013,7 +1014,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -1021,7 +1022,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -1029,7 +1030,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -1037,7 +1038,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -1045,7 +1046,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -1053,7 +1054,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -1061,7 +1062,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -1069,7 +1070,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -1077,7 +1078,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -1085,7 +1086,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -1093,7 +1094,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
@@ -1101,7 +1102,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -1109,7 +1110,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -1117,7 +1118,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -1125,7 +1126,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -1133,7 +1134,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
@@ -1141,7 +1142,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
@@ -1149,7 +1150,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
@@ -1157,7 +1158,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
@@ -1165,7 +1166,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B42" t="s">
         <v>40</v>
@@ -1173,7 +1174,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
@@ -1181,7 +1182,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
@@ -1189,7 +1190,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
@@ -1197,7 +1198,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
@@ -1205,7 +1206,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
@@ -1213,7 +1214,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
@@ -1221,7 +1222,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s">
         <v>47</v>
@@ -1229,7 +1230,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
@@ -1237,7 +1238,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B51" t="s">
         <v>49</v>
@@ -1245,7 +1246,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
@@ -1253,7 +1254,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
@@ -1261,7 +1262,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
@@ -1269,7 +1270,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
@@ -1277,7 +1278,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
@@ -1285,7 +1286,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
@@ -1296,7 +1297,7 @@
         <v>127</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1304,7 +1305,7 @@
         <v>128</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1312,7 +1313,7 @@
         <v>129</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1320,7 +1321,7 @@
         <v>130</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1328,7 +1329,7 @@
         <v>131</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1336,7 +1337,7 @@
         <v>132</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1344,7 +1345,7 @@
         <v>133</v>
       </c>
       <c r="B64" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1352,7 +1353,7 @@
         <v>134</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1360,7 +1361,7 @@
         <v>135</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1368,7 +1369,7 @@
         <v>136</v>
       </c>
       <c r="B67" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1376,7 +1377,7 @@
         <v>137</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1384,7 +1385,7 @@
         <v>137</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1392,7 +1393,7 @@
         <v>138</v>
       </c>
       <c r="B70" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/transacoes_sap.xlsx
+++ b/transacoes_sap.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U623373\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U623373\Desktop\dic_sap\github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD8F066-6ABD-4B3A-901F-4FB36396D8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{50ADE3E8-72AC-4F24-B166-4BC569CD0DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41DC156F-DD9E-43DD-9DE5-507F03D5D9FD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{77C9B20D-37FF-4BED-A8BD-96C6BDDAFD3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$B$70</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,430 +39,442 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="143">
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Emissão do programa de ODS (COELODS) / Programa de Investimento (COELBA)</t>
+  </si>
   <si>
     <t>IM23</t>
   </si>
   <si>
+    <t>Custo real de projeto</t>
+  </si>
+  <si>
     <t xml:space="preserve">CJI3 </t>
   </si>
   <si>
+    <t>Custo compromissado do projeto</t>
+  </si>
+  <si>
     <t xml:space="preserve">CJI5 </t>
   </si>
   <si>
+    <t>Estrutura do Projeto</t>
+  </si>
+  <si>
     <t xml:space="preserve">CJ03 </t>
   </si>
   <si>
+    <t>Criar nova requisição.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME51N </t>
   </si>
   <si>
+    <t>Modificar requisição existente.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME52N </t>
   </si>
   <si>
+    <t>Exibir requisição existente.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME53N </t>
   </si>
   <si>
+    <t>Relatório geral sobre requisições de compras.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME5A </t>
   </si>
   <si>
+    <t>Relatório geral por classificação contábil sobre requisição de compras.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME5K </t>
   </si>
   <si>
+    <t>Relatório por projeto sobre requisição de compras.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME5J </t>
   </si>
   <si>
+    <t>Criar nova cotação.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME41 </t>
   </si>
   <si>
+    <t>Modificar cotação existente.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME42 </t>
   </si>
   <si>
+    <t>Exibir cotação existente.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME43 </t>
   </si>
   <si>
+    <t>Modificar anexo em cotação existente.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME44 </t>
   </si>
   <si>
+    <t>Relatorio de cotação por numero de material.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME4M </t>
   </si>
   <si>
+    <t>Relatorio de cotação por numero de cotação.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME4N </t>
   </si>
   <si>
+    <t>Relatorio de cotação por numero de fornecedor.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME4L </t>
   </si>
   <si>
+    <t>Realizar liberação de cotação.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME45 </t>
   </si>
   <si>
+    <t>Criar novo contrato.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME31K </t>
   </si>
   <si>
+    <t>Modificar contrato existente.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME32K </t>
   </si>
   <si>
+    <t>Exibir contrato existente.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME33K </t>
   </si>
   <si>
+    <t>Atualizar anexo de um contrato existente.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME34K </t>
   </si>
   <si>
+    <t>Liberar contrato.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME35K </t>
   </si>
   <si>
+    <t>Atualizar informações de diversos contratos em massa.</t>
+  </si>
+  <si>
     <t xml:space="preserve">MEMASSCONTRACT </t>
   </si>
   <si>
+    <t>Relatório de contratos preferencialmente por numero material.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME3M </t>
   </si>
   <si>
+    <t>Relatório de contratos preferencialmente por numero de contrato.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME3N </t>
   </si>
   <si>
+    <t>Relatório de contratos preferencialmente por numero de fornecedor.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME3L </t>
   </si>
   <si>
+    <t>Criar novo pedido.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME21N </t>
   </si>
   <si>
+    <t>Modificar pedido existente.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME22N </t>
   </si>
   <si>
+    <t>Exibir pedido existente.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME23N </t>
   </si>
   <si>
+    <t>Atualizar anexo de um pedido existente.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME24 </t>
   </si>
   <si>
+    <t>Atualizar informações de diversos pedidos em massa.</t>
+  </si>
+  <si>
     <t xml:space="preserve">MEMASSPO </t>
   </si>
   <si>
+    <t>Relatório de pedidos preferencialmente por material.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME2M </t>
   </si>
   <si>
+    <t>Relatório de pedidos preferencialmente por numero de pedido.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME2N </t>
   </si>
   <si>
+    <t>Relatório de pedidos preferencialmente por numero de fornecedor.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME2L </t>
   </si>
   <si>
+    <t>Liberar pedidos de forma coletiva.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME28 </t>
   </si>
   <si>
+    <t>Liberar pedidos individualmente.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME29N </t>
   </si>
   <si>
+    <t>Liberação coletiva de folhas de serviço.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ML85 </t>
   </si>
   <si>
+    <t>Realizar entrada de mercadorias.</t>
+  </si>
+  <si>
     <t xml:space="preserve">MIGO </t>
   </si>
   <si>
+    <t>Realizar lançamento de serviços.</t>
+  </si>
+  <si>
     <t>ML81N</t>
   </si>
   <si>
+    <t>Realizar lançamento de nota fiscal.</t>
+  </si>
+  <si>
     <t xml:space="preserve">MIRO </t>
   </si>
   <si>
+    <t>Exibir lançamento de MIRO.</t>
+  </si>
+  <si>
     <t xml:space="preserve">MIR4 </t>
   </si>
   <si>
+    <t>Exibir diversos lançamentos de MIRO.</t>
+  </si>
+  <si>
     <t xml:space="preserve">MIR5 </t>
   </si>
   <si>
+    <t>Estornar MIRO.</t>
+  </si>
+  <si>
     <t xml:space="preserve">MR8M </t>
   </si>
   <si>
+    <t>Exibir documento contabil.</t>
+  </si>
+  <si>
     <t xml:space="preserve">FB03 </t>
   </si>
   <si>
+    <t>Criar novo fornecedor.</t>
+  </si>
+  <si>
     <t xml:space="preserve">XK01 </t>
   </si>
   <si>
+    <t>Modificar fornecedor existente.</t>
+  </si>
+  <si>
     <t xml:space="preserve">XK02 </t>
   </si>
   <si>
+    <t>Exibir fornecedor existente.</t>
+  </si>
+  <si>
     <t xml:space="preserve">XK03 </t>
   </si>
   <si>
+    <t>Bloquear fornecedor existente.</t>
+  </si>
+  <si>
     <t xml:space="preserve">XK05 </t>
   </si>
   <si>
+    <t>Marcar fornecedor existente para eliminação.</t>
+  </si>
+  <si>
     <t xml:space="preserve">XK06 </t>
   </si>
   <si>
+    <t>Atualizar informações de fornecedores em massa.</t>
+  </si>
+  <si>
     <t xml:space="preserve">XK99 </t>
   </si>
   <si>
+    <t>Criar novo inventario fisico.</t>
+  </si>
+  <si>
     <t xml:space="preserve">MI01 </t>
   </si>
   <si>
+    <t>Modificar inventario fisico existente.</t>
+  </si>
+  <si>
     <t xml:space="preserve">MI02 </t>
   </si>
   <si>
+    <t>Exibir inventario fisico existente.</t>
+  </si>
+  <si>
     <t xml:space="preserve">MI03 </t>
   </si>
   <si>
+    <t>Recontar inventario realizado.</t>
+  </si>
+  <si>
     <t xml:space="preserve">MI11 </t>
   </si>
   <si>
+    <t>Orçamento real.</t>
+  </si>
+  <si>
     <t xml:space="preserve">FMEM </t>
   </si>
   <si>
-    <t>Descrição</t>
-  </si>
-  <si>
-    <t>Código</t>
+    <t>Cockpit com todas as transações relacionadas a auditoria.</t>
   </si>
   <si>
     <t>ZMM52</t>
   </si>
   <si>
+    <t>Relatório sobre pagamentos realizados a fornecedores.</t>
+  </si>
+  <si>
     <t>ZFI51</t>
   </si>
   <si>
+    <t>Relatório para retirar os aprovadores e seus dados de pedidos e contratos.</t>
+  </si>
+  <si>
     <t>ZMM397</t>
   </si>
   <si>
+    <t>Relatório para retirar os aprovadores e seus dados de requisições de compra.</t>
+  </si>
+  <si>
     <t>ZMM398</t>
   </si>
   <si>
+    <t>Cockpit com diversas transações relacionadas a projeto</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZPS01 </t>
   </si>
   <si>
+    <t>Dados técnicos de projetos</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZPS02 </t>
   </si>
   <si>
+    <t>Diversos dados sobre projetos</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZPS25 </t>
   </si>
   <si>
+    <t>Movimentação de materiais/serviços por projeto.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZPS41 </t>
   </si>
   <si>
+    <t>Acompanhamento de todos os serviços realizados por projeto.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZPS141 </t>
   </si>
   <si>
+    <t>Lista de materiais/serviços por projeto.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZPS60 </t>
   </si>
   <si>
+    <t>Relatório com diversas informações sobre projetos enviadas a Aneel.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZPS046 </t>
   </si>
   <si>
     <t xml:space="preserve">ZPS047 </t>
   </si>
   <si>
+    <t>Relatório que gera diversas informações sobre contratos</t>
+  </si>
+  <si>
     <t>ZMM217</t>
   </si>
   <si>
-    <t>Emissão do programa de ODS (COELODS) / Programa de Investimento (COELBA) ,x</t>
-  </si>
-  <si>
-    <t>Custo real de projeto,x</t>
-  </si>
-  <si>
-    <t>Custo compromissado do projeto,x</t>
-  </si>
-  <si>
-    <t>Estrutura do Projeto,x</t>
-  </si>
-  <si>
-    <t>Criar nova requisição.,x</t>
-  </si>
-  <si>
-    <t>Modificar requisição existente.,x</t>
-  </si>
-  <si>
-    <t>Exibir requisição existente.,x</t>
-  </si>
-  <si>
-    <t>Relatório geral sobre requisições de compras.,x</t>
-  </si>
-  <si>
-    <t>Relatório geral por classificação contábil sobre requisição de compras.,x</t>
-  </si>
-  <si>
-    <t>Relatório por projeto sobre requisição de compras.,x</t>
-  </si>
-  <si>
-    <t>Criar nova cotação.,x</t>
-  </si>
-  <si>
-    <t>Modificar cotação existente.,x</t>
-  </si>
-  <si>
-    <t>Exibir cotação existente.,x</t>
-  </si>
-  <si>
-    <t>Modificar anexo em cotação existente.,x</t>
-  </si>
-  <si>
-    <t>Relatorio de cotação por numero de material.,x</t>
-  </si>
-  <si>
-    <t>Relatorio de cotação por numero de cotação.,x</t>
-  </si>
-  <si>
-    <t>Relatorio de cotação por numero de fornecedor.,x</t>
-  </si>
-  <si>
-    <t>Realizar liberação de cotação.,x</t>
-  </si>
-  <si>
-    <t>Criar novo contrato.,x</t>
-  </si>
-  <si>
-    <t>Modificar contrato existente.,x</t>
-  </si>
-  <si>
-    <t>Exibir contrato existente.,x</t>
-  </si>
-  <si>
-    <t>Atualizar anexo de um contrato existente.,x</t>
-  </si>
-  <si>
-    <t>Liberar contrato.,x</t>
-  </si>
-  <si>
-    <t>Atualizar informações de diversos contratos em massa.,x</t>
-  </si>
-  <si>
-    <t>Relatório de contratos preferencialmente por numero material.,x</t>
-  </si>
-  <si>
-    <t>Relatório de contratos preferencialmente por numero de contrato.,x</t>
-  </si>
-  <si>
-    <t>Relatório de contratos preferencialmente por numero de fornecedor.,x</t>
-  </si>
-  <si>
-    <t>Criar novo pedido.,x</t>
-  </si>
-  <si>
-    <t>Modificar pedido existente.,x</t>
-  </si>
-  <si>
-    <t>Exibir pedido existente.,x</t>
-  </si>
-  <si>
-    <t>Atualizar anexo de um pedido existente.,x</t>
-  </si>
-  <si>
-    <t>Atualizar informações de diversos pedidos em massa.,x</t>
-  </si>
-  <si>
-    <t>Relatório de pedidos preferencialmente por material.,x</t>
-  </si>
-  <si>
-    <t>Relatório de pedidos preferencialmente por numero de pedido.,x</t>
-  </si>
-  <si>
-    <t>Relatório de pedidos preferencialmente por numero de fornecedor.,x</t>
-  </si>
-  <si>
-    <t>Liberar pedidos de forma coletiva.,x</t>
-  </si>
-  <si>
-    <t>Liberar pedidos individualmente.,x</t>
-  </si>
-  <si>
-    <t>Liberação coletiva de folhas de serviço.,x</t>
-  </si>
-  <si>
-    <t>Realizar entrada de mercadorias.,x</t>
-  </si>
-  <si>
-    <t>Realizar lançamento de serviços.,x</t>
-  </si>
-  <si>
-    <t>Realizar lançamento de nota fiscal.,x</t>
-  </si>
-  <si>
-    <t>Exibir lançamento de MIRO.,x</t>
-  </si>
-  <si>
-    <t>Exibir diversos lançamentos de MIRO.,x</t>
-  </si>
-  <si>
-    <t>Estornar MIRO.,x</t>
-  </si>
-  <si>
-    <t>Exibir documento contabil.,x</t>
-  </si>
-  <si>
-    <t>Criar novo fornecedor.,x</t>
-  </si>
-  <si>
-    <t>Modificar fornecedor existente.,x</t>
-  </si>
-  <si>
-    <t>Exibir fornecedor existente.,x</t>
-  </si>
-  <si>
-    <t>Bloquear fornecedor existente.,x</t>
-  </si>
-  <si>
-    <t>Marcar fornecedor existente para eliminação.,x</t>
-  </si>
-  <si>
-    <t>Atualizar informações de fornecedores em massa.,x</t>
-  </si>
-  <si>
-    <t>Criar novo inventario fisico.,x</t>
-  </si>
-  <si>
-    <t>Modificar inventario fisico existente.,x</t>
-  </si>
-  <si>
-    <t>Exibir inventario fisico existente.,x</t>
-  </si>
-  <si>
-    <t>Recontar inventario realizado.,x</t>
-  </si>
-  <si>
-    <t>Orçamento real.,x</t>
-  </si>
-  <si>
-    <t>Cockpit com todas as transações relacionadas a auditoria.,x</t>
-  </si>
-  <si>
-    <t>Relatório sobre pagamentos realizados a fornecedores.,x</t>
-  </si>
-  <si>
-    <t>Relatório para retirar os aprovadores e seus dados de pedidos e contratos.,x</t>
-  </si>
-  <si>
-    <t>Relatório para retirar os aprovadores e seus dados de requisições de compra.,x</t>
-  </si>
-  <si>
-    <t>Cockpit com diversas transações relacionadas a projeto,x</t>
-  </si>
-  <si>
-    <t>Dados técnicos de projetos,x</t>
-  </si>
-  <si>
-    <t>Diversos dados sobre projetos,x</t>
-  </si>
-  <si>
-    <t>Movimentação de materiais/serviços por projeto.,x</t>
-  </si>
-  <si>
-    <t>Acompanhamento de todos os serviços realizados por projeto.,x</t>
-  </si>
-  <si>
-    <t>Lista de materiais/serviços por projeto.,x</t>
-  </si>
-  <si>
-    <t>Relatório com diversas informações sobre projetos enviadas a Aneel.,x</t>
-  </si>
-  <si>
-    <t>Relatório que gera diversas informações sobre contratos,x</t>
+    <t xml:space="preserve">Extração razão contábil </t>
+  </si>
+  <si>
+    <t>FBL3N</t>
+  </si>
+  <si>
+    <t>Consulta pagamentos por Fornecedor</t>
+  </si>
+  <si>
+    <t>FBL1N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -824,583 +839,887 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2CB70D-AC85-45EC-AC43-CC4E571F42B6}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="35.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="72.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="74.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>72</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B37" t="s">
         <v>73</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
         <v>74</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B38" t="s">
         <v>75</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
         <v>76</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B39" t="s">
         <v>77</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>78</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B40" t="s">
         <v>79</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>80</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B41" t="s">
         <v>81</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>82</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B42" t="s">
         <v>83</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>84</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B43" t="s">
         <v>85</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>86</v>
       </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B44" t="s">
         <v>87</v>
       </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>88</v>
       </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B45" t="s">
         <v>89</v>
       </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>90</v>
       </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B46" t="s">
         <v>91</v>
       </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>92</v>
       </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B47" t="s">
         <v>93</v>
       </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>94</v>
       </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B48" t="s">
         <v>95</v>
       </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>96</v>
       </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B49" t="s">
         <v>97</v>
       </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>98</v>
       </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B50" t="s">
         <v>99</v>
       </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
         <v>100</v>
       </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B51" t="s">
         <v>101</v>
       </c>
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>102</v>
       </c>
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B52" t="s">
         <v>103</v>
       </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>104</v>
       </c>
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B53" t="s">
         <v>105</v>
       </c>
-      <c r="B36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>106</v>
       </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B54" t="s">
         <v>107</v>
       </c>
-      <c r="B38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>108</v>
       </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B55" t="s">
         <v>109</v>
       </c>
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
         <v>110</v>
       </c>
-      <c r="B41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B56" t="s">
         <v>111</v>
       </c>
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
         <v>112</v>
       </c>
-      <c r="B43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B57" t="s">
         <v>113</v>
       </c>
-      <c r="B44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
         <v>114</v>
       </c>
-      <c r="B45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B58" t="s">
         <v>115</v>
       </c>
-      <c r="B46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
         <v>116</v>
       </c>
-      <c r="B47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B59" t="s">
         <v>117</v>
       </c>
-      <c r="B48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
         <v>118</v>
       </c>
-      <c r="B49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B60" t="s">
         <v>119</v>
       </c>
-      <c r="B50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
         <v>120</v>
       </c>
-      <c r="B51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B61" t="s">
         <v>121</v>
       </c>
-      <c r="B52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
         <v>122</v>
       </c>
-      <c r="B53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B62" t="s">
         <v>123</v>
       </c>
-      <c r="B54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
         <v>124</v>
       </c>
-      <c r="B55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B63" t="s">
         <v>125</v>
       </c>
-      <c r="B56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
         <v>126</v>
       </c>
-      <c r="B57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B64" t="s">
         <v>127</v>
       </c>
-      <c r="B58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
         <v>128</v>
       </c>
-      <c r="B59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B65" t="s">
         <v>129</v>
       </c>
-      <c r="B60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
         <v>130</v>
       </c>
-      <c r="B61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B66" t="s">
         <v>131</v>
       </c>
-      <c r="B62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
         <v>132</v>
       </c>
-      <c r="B63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B67" t="s">
         <v>133</v>
       </c>
-      <c r="B64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
         <v>134</v>
       </c>
-      <c r="B65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B68" t="s">
         <v>135</v>
       </c>
-      <c r="B66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
         <v>136</v>
       </c>
-      <c r="B67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
         <v>137</v>
       </c>
-      <c r="B68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>137</v>
-      </c>
-      <c r="B69" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
         <v>138</v>
       </c>
-      <c r="B70" t="s">
-        <v>70</v>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B70" xr:uid="{EB2CB70D-AC85-45EC-AC43-CC4E571F42B6}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;12&amp;K008000 Internal Use</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007D09E90CD810884BAFCAD4823A1817BA" ma:contentTypeVersion="18" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="a5f216c500005e767098a9ff07094546">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="04122236-30bc-4d1f-834a-a6fbe18e83f3" xmlns:ns3="46f92d61-b6ca-485f-907f-de7094f59048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="884a8f76dfd19173da2095080af7639f" ns2:_="" ns3:_="">
+    <xsd:import namespace="04122236-30bc-4d1f-834a-a6fbe18e83f3"/>
+    <xsd:import namespace="46f92d61-b6ca-485f-907f-de7094f59048"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="04122236-30bc-4d1f-834a-a6fbe18e83f3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e84e374b-9a04-4d73-a251-4ce1ae2c835e" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="25" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="46f92d61-b6ca-485f-907f-de7094f59048" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{1d045ef4-c6b7-412f-8d5c-a31044d7890f}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="46f92d61-b6ca-485f-907f-de7094f59048">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="21" nillable="true" ma:displayName="Compartilhado com" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="22" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="46f92d61-b6ca-485f-907f-de7094f59048" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="04122236-30bc-4d1f-834a-a6fbe18e83f3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97E9F1F4-B391-4B9B-88E0-F23B13F4DC80}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEE0335D-9EE8-45FC-AC08-4580DB282A0C}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D29D37CF-EB53-46F5-85CD-0C590D7DD979}"/>
 </file>
--- a/transacoes_sap.xlsx
+++ b/transacoes_sap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U623373\Desktop\dic_sap\github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{50ADE3E8-72AC-4F24-B166-4BC569CD0DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41DC156F-DD9E-43DD-9DE5-507F03D5D9FD}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{50ADE3E8-72AC-4F24-B166-4BC569CD0DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4979835C-367B-4B23-97F9-7A703625E091}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{77C9B20D-37FF-4BED-A8BD-96C6BDDAFD3A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="145">
   <si>
     <t>Descrição</t>
   </si>
@@ -468,6 +468,12 @@
   </si>
   <si>
     <t>FBL1N</t>
+  </si>
+  <si>
+    <t>Extração Saldo de Razão das Contas Resumido</t>
+  </si>
+  <si>
+    <t>ZFI127</t>
   </si>
 </sst>
 </file>
@@ -839,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2CB70D-AC85-45EC-AC43-CC4E571F42B6}">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.140625" defaultRowHeight="15"/>
@@ -1427,6 +1433,14 @@
         <v>142</v>
       </c>
     </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B70" xr:uid="{EB2CB70D-AC85-45EC-AC43-CC4E571F42B6}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1438,6 +1452,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007D09E90CD810884BAFCAD4823A1817BA" ma:contentTypeVersion="18" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="a5f216c500005e767098a9ff07094546">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="04122236-30bc-4d1f-834a-a6fbe18e83f3" xmlns:ns3="46f92d61-b6ca-485f-907f-de7094f59048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="884a8f76dfd19173da2095080af7639f" ns2:_="" ns3:_="">
     <xsd:import namespace="04122236-30bc-4d1f-834a-a6fbe18e83f3"/>
@@ -1692,15 +1715,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1713,11 +1727,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97E9F1F4-B391-4B9B-88E0-F23B13F4DC80}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEE0335D-9EE8-45FC-AC08-4580DB282A0C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEE0335D-9EE8-45FC-AC08-4580DB282A0C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97E9F1F4-B391-4B9B-88E0-F23B13F4DC80}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/transacoes_sap.xlsx
+++ b/transacoes_sap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U623373\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A211B48A-C47E-436C-A01F-F69345D70794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB666106-BF33-4050-93D5-E329F7A16966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,15 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="611">
   <si>
-    <t>Transação</t>
-  </si>
-  <si>
-    <t>Descrição</t>
-  </si>
-  <si>
-    <t>Módulo</t>
-  </si>
-  <si>
     <t>sap_system</t>
   </si>
   <si>
@@ -1869,6 +1860,15 @@
   </si>
   <si>
     <t>orçamento real.;Orçamento real.</t>
+  </si>
+  <si>
+    <t>descricao</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>modulo</t>
   </si>
 </sst>
 </file>
@@ -2259,3436 +2259,3436 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>410</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D8" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D9" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C10" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D10" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C11" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D11" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C12" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D12" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D13" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D14" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C15" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D15" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C16" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D16" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C17" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D17" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C18" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D18" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C19" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D19" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C20" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D20" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C21" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D21" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C22" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D22" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C23" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D23" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C24" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D24" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C25" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D25" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C26" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D26" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C27" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D27" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C28" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D28" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C29" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D29" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C30" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D30" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C31" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D31" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C32" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D32" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C33" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D33" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C34" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D34" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C35" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D35" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C36" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D36" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C37" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D37" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C38" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D38" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C39" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D39" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C40" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D40" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C41" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D41" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C42" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D42" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C43" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D43" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C44" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D44" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C45" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D45" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C46" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D46" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C47" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D47" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C48" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D48" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C49" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D49" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C50" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D50" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C51" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D51" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C52" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D52" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C53" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D53" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C54" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D54" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C55" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D55" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C56" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D56" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C57" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D57" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C58" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D58" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C59" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D59" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C60" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D60" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C61" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D61" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C62" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D62" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C63" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D63" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C64" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D64" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C65" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D65" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C66" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D66" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C67" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D67" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C68" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D68" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C69" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D69" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C70" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D70" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C71" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D71" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C72" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D72" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C73" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D73" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C74" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D74" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C75" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D75" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C76" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D76" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C77" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D77" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C78" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D78" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C79" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D79" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C80" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D80" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C81" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D81" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C82" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D82" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C83" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D83" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C84" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D84" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C85" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D85" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C86" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D86" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C87" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D87" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C88" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D88" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C89" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D89" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C90" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D90" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C91" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D91" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C92" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D92" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C93" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D93" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C94" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D94" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C95" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D95" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C96" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D96" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C97" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D97" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C98" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D98" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C99" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D99" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C100" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D100" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C101" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D101" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C102" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D102" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C103" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D103" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C104" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D104" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C105" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D105" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C106" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D106" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C107" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D107" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C108" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D108" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C109" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D109" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C110" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D110" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C111" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D111" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C112" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D112" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C113" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D113" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C114" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D114" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C115" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D115" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C116" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D116" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C117" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D117" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C118" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D118" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C119" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D119" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C120" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D120" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C121" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D121" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C122" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D122" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C123" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D123" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C124" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D124" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C125" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D125" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C126" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D126" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C127" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D127" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C128" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D128" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C129" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D129" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C130" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D130" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C131" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D131" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C132" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D132" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C133" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D133" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C134" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D134" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C135" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D135" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C136" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D136" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C137" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D137" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C138" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D138" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C139" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D139" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C140" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D140" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C141" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D141" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C142" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D142" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C143" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D143" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C144" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D144" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C145" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D145" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C146" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D146" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C147" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D147" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C148" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D148" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C149" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D149" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C150" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D150" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C151" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D151" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C152" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D152" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C153" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D153" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C154" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D154" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C155" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D155" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C156" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D156" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C157" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D157" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C158" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D158" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C159" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D159" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C160" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D160" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C161" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D161" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C162" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D162" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C163" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D163" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C164" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D164" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C165" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D165" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C166" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D166" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C167" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D167" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C168" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D168" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C169" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D169" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C170" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D170" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C171" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D171" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C172" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D172" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C173" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D173" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C174" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D174" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C175" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D175" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C176" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D176" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C177" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D177" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C178" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D178" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C179" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D179" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C180" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D180" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C181" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D181" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C182" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D182" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C183" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D183" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C184" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D184" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C185" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D185" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C186" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D186" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C187" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D187" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C188" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D188" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C189" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D189" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C190" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D190" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C191" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D191" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C192" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D192" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C193" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D193" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C194" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D194" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B195" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C195" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D195" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C196" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D196" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C197" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D197" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C198" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D198" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C199" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D199" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C200" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D200" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C201" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D201" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C202" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D202" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/transacoes_sap.xlsx
+++ b/transacoes_sap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U623373\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U623373\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB666106-BF33-4050-93D5-E329F7A16966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1216C55-4C4B-40BC-BF65-A7DD9120E916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,9 +506,6 @@
     <t>FAGL_ACTIVATE_OP</t>
   </si>
   <si>
-    <t>FAGLB</t>
-  </si>
-  <si>
     <t>F.13</t>
   </si>
   <si>
@@ -1106,9 +1103,6 @@
     <t>Ativação de partidas abertas em contas específicas</t>
   </si>
   <si>
-    <t>03  Consulta de saldos contábeis</t>
-  </si>
-  <si>
     <t>Compensação automática de partidas abertas</t>
   </si>
   <si>
@@ -1343,9 +1337,6 @@
     <t>altera pedido de compra;Altera pedido de compra</t>
   </si>
   <si>
-    <t>exibe pedido de compra, exibir pedido de compra, transação para exibir pedido de compra, exibir pedidos de compras, ;Exibe pedido de compra</t>
-  </si>
-  <si>
     <t>entrada de faturas;Entrada de faturas</t>
   </si>
   <si>
@@ -1856,12 +1847,6 @@
     <t>marcar fornecedor existente para eliminação.;Marcar fornecedor existente para eliminação.</t>
   </si>
   <si>
-    <t>recontar inventario realizado.;Recontar inventario realizado.</t>
-  </si>
-  <si>
-    <t>orçamento real.;Orçamento real.</t>
-  </si>
-  <si>
     <t>descricao</t>
   </si>
   <si>
@@ -1869,6 +1854,21 @@
   </si>
   <si>
     <t>modulo</t>
+  </si>
+  <si>
+    <t>recontar inventario realizado</t>
+  </si>
+  <si>
+    <t>exibe pedido de compra, exibir pedido de compra, transação para exibir pedido de compra, exibir pedidos de compras</t>
+  </si>
+  <si>
+    <t>FAGLB03</t>
+  </si>
+  <si>
+    <t>Consulta de saldos contábeis</t>
+  </si>
+  <si>
+    <t>orçamento real</t>
   </si>
 </sst>
 </file>
@@ -2245,7 +2245,7 @@
   <dimension ref="A1:E202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2259,13 +2259,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -2279,16 +2279,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2296,16 +2296,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2313,16 +2313,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -2330,16 +2330,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -2347,16 +2347,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -2364,16 +2364,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2381,16 +2381,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -2398,16 +2398,16 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2415,16 +2415,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -2432,16 +2432,16 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2449,16 +2449,16 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2466,16 +2466,16 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2483,16 +2483,16 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2500,16 +2500,16 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2517,16 +2517,16 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2534,16 +2534,16 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C17" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2551,16 +2551,16 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C18" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D18" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2568,16 +2568,16 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2585,16 +2585,16 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C20" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2602,16 +2602,16 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2619,16 +2619,16 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D22" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2636,16 +2636,16 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C23" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D23" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2653,16 +2653,16 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C24" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D24" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2670,16 +2670,16 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D25" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2687,16 +2687,16 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C26" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D26" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2704,16 +2704,16 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C27" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D27" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2721,33 +2721,33 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C28" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D28" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C29" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D29" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>435</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2755,16 +2755,16 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C30" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D30" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2772,16 +2772,16 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C31" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D31" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2789,16 +2789,16 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C32" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D32" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2806,16 +2806,16 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C33" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D33" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2823,16 +2823,16 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C34" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D34" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2840,16 +2840,16 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C35" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D35" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2857,16 +2857,16 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C36" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D36" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2874,16 +2874,16 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C37" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D37" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2891,16 +2891,16 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C38" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D38" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2908,16 +2908,16 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C39" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D39" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2925,16 +2925,16 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C40" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D40" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2942,16 +2942,16 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C41" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D41" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2959,16 +2959,16 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C42" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D42" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2976,16 +2976,16 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C43" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D43" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2993,16 +2993,16 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C44" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D44" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3010,16 +3010,16 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D45" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3027,16 +3027,16 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C46" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D46" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3044,16 +3044,16 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C47" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D47" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3061,16 +3061,16 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C48" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D48" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3078,16 +3078,16 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C49" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D49" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3095,16 +3095,16 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C50" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D50" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3112,16 +3112,16 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C51" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D51" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3129,16 +3129,16 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C52" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D52" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3146,16 +3146,16 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C53" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D53" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3163,16 +3163,16 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C54" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D54" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3180,16 +3180,16 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C55" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D55" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3197,16 +3197,16 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C56" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D56" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3214,16 +3214,16 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C57" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D57" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3231,16 +3231,16 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C58" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D58" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3248,16 +3248,16 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C59" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D59" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -3265,16 +3265,16 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C60" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D60" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3282,16 +3282,16 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C61" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D61" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3299,16 +3299,16 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C62" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D62" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3316,16 +3316,16 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C63" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D63" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3333,16 +3333,16 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C64" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D64" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3350,16 +3350,16 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C65" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D65" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3367,16 +3367,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C66" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D66" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3384,16 +3384,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C67" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D67" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3401,16 +3401,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C68" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D68" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3418,16 +3418,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C69" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D69" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3435,16 +3435,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C70" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D70" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3452,16 +3452,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C71" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D71" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3469,16 +3469,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C72" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D72" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3486,16 +3486,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C73" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D73" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3503,16 +3503,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C74" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D74" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3520,16 +3520,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C75" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D75" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3537,16 +3537,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C76" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D76" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3554,16 +3554,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C77" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D77" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3571,16 +3571,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C78" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D78" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3588,16 +3588,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C79" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D79" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3605,16 +3605,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C80" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D80" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3622,16 +3622,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C81" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D81" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3639,16 +3639,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C82" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D82" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3656,16 +3656,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C83" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D83" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3673,16 +3673,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C84" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D84" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3690,16 +3690,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C85" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D85" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3707,16 +3707,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C86" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D86" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3724,16 +3724,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C87" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D87" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3741,16 +3741,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C88" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D88" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3758,16 +3758,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C89" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D89" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3775,16 +3775,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C90" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D90" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3792,16 +3792,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C91" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D91" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3809,16 +3809,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C92" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D92" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3826,16 +3826,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C93" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D93" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3843,16 +3843,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C94" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D94" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3860,16 +3860,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C95" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D95" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3877,16 +3877,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C96" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D96" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3894,16 +3894,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C97" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D97" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3911,16 +3911,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C98" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D98" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3928,16 +3928,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C99" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D99" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3945,16 +3945,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C100" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D100" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3962,16 +3962,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C101" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D101" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3979,16 +3979,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C102" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D102" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3996,16 +3996,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C103" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D103" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -4013,16 +4013,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C104" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D104" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4030,16 +4030,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C105" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D105" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4047,16 +4047,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C106" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D106" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4064,16 +4064,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C107" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D107" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4081,16 +4081,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C108" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D108" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4098,16 +4098,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C109" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D109" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4115,16 +4115,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C110" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D110" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4132,16 +4132,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C111" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D111" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -4149,16 +4149,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C112" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D112" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4166,16 +4166,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C113" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D113" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4183,16 +4183,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C114" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D114" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -4200,16 +4200,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C115" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D115" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4217,16 +4217,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C116" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D116" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4234,16 +4234,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C117" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D117" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4251,16 +4251,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C118" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D118" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4268,16 +4268,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C119" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D119" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -4285,16 +4285,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C120" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D120" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4302,16 +4302,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C121" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D121" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4319,16 +4319,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C122" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D122" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4336,16 +4336,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C123" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D123" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4353,16 +4353,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C124" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D124" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4370,16 +4370,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C125" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D125" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4387,16 +4387,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C126" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D126" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -4404,16 +4404,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C127" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D127" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4421,16 +4421,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C128" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D128" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -4438,16 +4438,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C129" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D129" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4455,16 +4455,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C130" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D130" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4472,16 +4472,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C131" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D131" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4489,16 +4489,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C132" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D132" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -4506,16 +4506,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C133" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D133" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4523,16 +4523,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C134" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D134" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4540,16 +4540,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C135" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D135" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4557,16 +4557,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C136" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D136" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4574,16 +4574,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C137" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D137" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -4591,16 +4591,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C138" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D138" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4608,16 +4608,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C139" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D139" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4625,16 +4625,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C140" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D140" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4642,16 +4642,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C141" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D141" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4659,16 +4659,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C142" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D142" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4676,16 +4676,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C143" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D143" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4693,16 +4693,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C144" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D144" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4710,16 +4710,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C145" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D145" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4727,16 +4727,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C146" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D146" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4744,16 +4744,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C147" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D147" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4761,16 +4761,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C148" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D148" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4778,16 +4778,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C149" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D149" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4795,16 +4795,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C150" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D150" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4812,16 +4812,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C151" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D151" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4829,16 +4829,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C152" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D152" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4846,16 +4846,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C153" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D153" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4863,16 +4863,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C154" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D154" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4880,16 +4880,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C155" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D155" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4897,662 +4897,662 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C156" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D156" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>608</v>
       </c>
       <c r="B157" t="s">
-        <v>356</v>
+        <v>609</v>
       </c>
       <c r="C157" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D157" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C158" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D158" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C159" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D159" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C160" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D160" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C161" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D161" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C162" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D162" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C163" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D163" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C164" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D164" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C165" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D165" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C166" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D166" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C167" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D167" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C168" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D168" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C169" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D169" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C170" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D170" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C171" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D171" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C172" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D172" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C173" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D173" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C174" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D174" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C175" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D175" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C176" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D176" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C177" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D177" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C178" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D178" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C179" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D179" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C180" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D180" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C181" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D181" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C182" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D182" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C183" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D183" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C184" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D184" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C185" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D185" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C186" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D186" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C187" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D187" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C188" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D188" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C189" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D189" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C190" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D190" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C191" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D191" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C192" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D192" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C193" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D193" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C194" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D194" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5560,115 +5560,115 @@
         <v>62</v>
       </c>
       <c r="B195" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C195" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D195" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B196" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C196" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D196" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B197" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C197" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D197" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B198" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C198" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D198" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B199" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C199" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D199" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>197</v>
+      </c>
+      <c r="B200" t="s">
+        <v>396</v>
+      </c>
+      <c r="C200" t="s">
+        <v>400</v>
+      </c>
+      <c r="D200" t="s">
+        <v>405</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>198</v>
       </c>
-      <c r="B200" t="s">
-        <v>398</v>
-      </c>
-      <c r="C200" t="s">
-        <v>402</v>
-      </c>
-      <c r="D200" t="s">
-        <v>407</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>199</v>
-      </c>
       <c r="B201" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C201" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D201" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>606</v>
@@ -5676,19 +5676,19 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B202" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C202" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D202" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
